--- a/s2cDNASample/s2cDNASample_3357.xlsx
+++ b/s2cDNASample/s2cDNASample_3357.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBAEBF1-7194-B141-9B57-05F08DB99D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D153FC1A-95D6-F246-ACFE-F3A2812FE46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="16940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="11">
   <si>
     <t>s1cDNADate</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B29 E2:E29"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -490,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
@@ -504,7 +504,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -521,22 +521,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -550,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -559,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>8</v>
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -582,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -590,22 +590,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>8</v>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -628,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
@@ -642,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -651,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>8</v>
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
@@ -682,22 +682,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>8</v>
@@ -711,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -743,7 +743,7 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>8</v>
@@ -757,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -780,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -812,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>8</v>
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -835,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>8</v>
@@ -849,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -858,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
@@ -872,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -881,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>8</v>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -904,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -927,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -941,7 +941,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -950,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -964,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -973,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>8</v>
@@ -987,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -996,7 +996,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>8</v>
@@ -1033,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1042,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>8</v>
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1065,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>8</v>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1088,32 +1088,9 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/s2cDNASample/s2cDNASample_3357.xlsx
+++ b/s2cDNASample/s2cDNASample_3357.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D153FC1A-95D6-F246-ACFE-F3A2812FE46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7FEE4D-8113-8E49-B24E-1C23EB15A913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="16940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="11">
   <si>
     <t>s1cDNADate</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,22 +567,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>8</v>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -628,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
@@ -642,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -651,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>8</v>
@@ -659,22 +659,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
@@ -688,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -697,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>8</v>
@@ -711,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -743,7 +743,7 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>8</v>
@@ -757,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -780,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -812,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>8</v>
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -835,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>8</v>
@@ -849,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -858,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
@@ -872,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -881,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>8</v>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -904,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -927,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -941,7 +941,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -950,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -964,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -973,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>8</v>
@@ -987,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -996,7 +996,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>8</v>
@@ -1033,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1042,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>8</v>
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1065,32 +1065,9 @@
         <v>10</v>
       </c>
       <c r="F27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>28</v>
-      </c>
-      <c r="G28" s="3" t="s">
         <v>8</v>
       </c>
     </row>
